--- a/Subnetting.xlsx
+++ b/Subnetting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fp01\f\shane.sexton\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D8B64D-0BB9-4FA5-B8A9-E2C6F415699D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008898B2-717D-4069-A093-5BB27C2F8344}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{A06BB46A-9E0E-46BD-B6B1-07FA2025D918}"/>
+    <workbookView xWindow="4830" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{A06BB46A-9E0E-46BD-B6B1-07FA2025D918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,9 +243,6 @@
     <t>Explanations</t>
   </si>
   <si>
-    <t>IP Addressing and Subnetting</t>
-  </si>
-  <si>
     <t>https://www.cisco.com/c/en/us/support/docs/ip/routing-information-protocol-rip/13788-3.html</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>https://learningnetwork.cisco.com/docs/DOC-1803</t>
   </si>
   <si>
-    <t>Subnetting Practice Game</t>
-  </si>
-  <si>
     <t>https://www.subnetting.net/Start.aspx</t>
   </si>
   <si>
@@ -304,6 +298,12 @@
   </si>
   <si>
     <t>http://www.subnet-calculator.com/</t>
+  </si>
+  <si>
+    <t>IP Addressing &amp; Subnets</t>
+  </si>
+  <si>
+    <t>Subnetting Practice</t>
   </si>
 </sst>
 </file>
@@ -724,102 +724,102 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="10"/>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>128</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>64</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>32</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>16</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" s="6">
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -839,22 +839,22 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" s="6">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -871,25 +871,25 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" s="6">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -903,17 +903,17 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
@@ -923,8 +923,8 @@
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="F7" s="6">
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -935,17 +935,17 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
@@ -958,8 +958,8 @@
       <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="G8" s="6">
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -967,17 +967,17 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
@@ -993,23 +993,23 @@
       <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="H9" s="6">
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
@@ -1028,20 +1028,20 @@
       <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
@@ -1063,53 +1063,56 @@
       <c r="I11" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,31 +1120,31 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,30 +1152,27 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="96" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>